--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8752132/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8752132/file.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
     <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="81" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,105 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -857,7 +956,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1181">
+  <cellXfs count="1523">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4193,6 +4292,978 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
@@ -4568,7 +5639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4626,6 +5697,66 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8967</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FIDUCIARIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>n1997</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALTAIR PARTICULARES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q00002</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ALTAIR PARTICULARES</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
